--- a/outputs/KOLKATA4.xlsx
+++ b/outputs/KOLKATA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to complete the task of adding information to the README, and finding the README is a necessary step. Given Abi's comprehensive information processing style, they would likely recognize that locating the README file is essential for editing it. The image shows the README.md file clearly listed, making it straightforward for Abi to identify it as the next step.</t>
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: Scrolling down to read more is a natural action for Abi, especially given their comprehensive information processing style. The page has a clear layout and provides an overview of the repository contents, which will help Abi gather the necessary information. The README.md file is listed prominently, and scrolling down will allow Abi to access more details if needed.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly visible in the file directory. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After scrolling down, while Abi may see more information about the project, it is not explicitly clear how to proceed with editing the README file. Abi's low confidence in doing unfamiliar computing tasks and preference for process-oriented learning means they might not feel assured that they are making progress towards their goal without clear, step-by-step instructions. The information on the page is extensive but does not directly address editing the README, which might cause confusion and uncertainty for Abi.</t>
+Why: After scrolling down, Abi will see a lot of information about the project, but it may not be immediately clear how to add information to the README file. The page contains various sections like features, installation, and contributing, which might overwhelm Abi. Given her low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal without explicit instructions or a clear indication of the next steps.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: The README.md file is clearly listed on the page, and it's a recognizable element in a GitHub repository. Abi's comprehensive information processing style means they will likely read through the repository contents and identify README.md as the relevant file to click on. The page provides a familiar and straightforward layout, which should make it evident to Abi what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory, and it is a logical step for Abi to click on it to view or edit its contents. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would likely understand that clicking on README.md is the next step toward adding information to it. The page is straightforward and provides a clear path to accessing the README file.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on README.md, Abi will land on a page with extensive information about the project. However, Abi's comprehensive information processing style and low confidence with unfamiliar computing tasks mean they might not immediately feel they are making progress toward their goal. The README.md provides a lot of details about the project, but it does not directly guide Abi on how to edit it. Abi might feel overwhelmed by the volume of information and uncertain about the next steps to add information to the README.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking on README.md, Abi will see the contents of the README file. However, the page does not provide explicit instructions on how to edit or add information to the README file. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal without clear, step-by-step instructions on how to proceed. The page provides a lot of information about the project but lacks specific guidance on editing the README file.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi, being motivated to complete the task of adding information to the README, would recognize that figuring out how to edit the README is a necessary step. Given Abi's comprehensive information processing style, they would likely understand that they need to gather information on how to make changes to the README file. The subgoal of finding out how to edit it aligns with Abi's methodical approach to understanding the problem before taking action.</t>
+Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. Abi would understand that she needs to know the process of editing the file to achieve her overall goal. This step is logical and aligns with her methodical approach to gathering information before taking action.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions indicating what the pencil button does. Given Abi's low confidence in performing unfamiliar computing tasks and preference for process-oriented learning, they may not feel confident in knowing what to do at this step. Abi might be hesitant to click the pencil button without clear guidance, fearing it might lead to an unintended action.</t>
+Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar icon without clear instructions. Abi may not immediately recognize that the pencil button is the correct action to take for editing the README file, and the lack of explicit guidance could deter her from proceeding.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will land on an editable version of the README file. This gives a clear indication that they have done the right thing and are making progress toward their goal. The page provides an interface that allows for editing text directly, which aligns with Abi's motivation to add information to the README. Additionally, the presence of editing options like "Commit changes" further reinforces that Abi is on the right track. This setup provides Abi with a clear path to complete the task, supporting their comprehensive information processing style.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal. The page provides a straightforward text editor, which aligns with her motivation to accomplish tasks and her comprehensive information processing style. The presence of "Commit changes" and "Cancel changes" buttons further indicates that she is in the correct place to make edits.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon reaching the editable version of the README file, the layout and text-editing options should be familiar and intuitive for Abi. The page is straightforward, with clear sections of text that can be edited. Abi’s motivation to complete the task and their comprehensive information processing style will guide them to understand that they can now add information directly into the text box. The presence of the "Commit changes" button also provides a clear next step, indicating that Abi is on the right track and making progress toward their goal.</t>
+Why: The page provides a clear and straightforward text editor interface, which makes it evident that Abi can now edit the README file. The presence of the "Edit" button, along with the editable text area, aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. The interface is intuitive and does not require any advanced technical skills, making it suitable for Abi to proceed with editing the file.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file and seeing the changes they have made, Abi will know they are making progress toward their goal. The page clearly shows the modifications in the editable text area, confirming that the edits have been made. The presence of the "Commit changes" button further indicates that Abi can proceed to finalize their changes, making it clear that they are on the right track. This aligns with Abi's motivation to complete the task and their comprehensive information processing style, which requires clear feedback and confirmation of progress.</t>
+Why: After editing the file, Abi will see her changes reflected in the text editor. The presence of the "Commit changes" button indicates that she can save her edits, confirming that she is making progress toward her goal. The interface is clear and straightforward, providing visual feedback that her edits have been made. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the direct result of her actions and understand that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview" button is not clearly labeled as "Preview Changes," which may cause confusion for Abi, given their low confidence in performing unfamiliar tasks and preference for clear, process-oriented instructions. Without explicit guidance, Abi might not be certain that clicking the "Preview" button will show them the changes they have made. This uncertainty might deter Abi from taking this action, fearing it might not lead to the expected outcome or could potentially cause an error.</t>
+Why: The "Preview changes" button is not prominently visible on the page, and there are no explicit instructions indicating that Abi should click it to see her changes. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar button without clear guidance. The page does not provide enough visual cues or instructions to make it obvious that "Preview changes" is the next step, which could deter Abi from taking this action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview," Abi will see the rendered version of the README with their changes. This clear visual confirmation will let Abi know they did the right thing and are making progress toward their goal. The page displays the edited content in a familiar format, providing immediate feedback that aligns with Abi's comprehensive information processing style. This confirmation process supports Abi's motivation to complete the task and ensures they have the information they need to proceed.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, aligning with her motivation to accomplish tasks and her comprehensive information processing style. The presence of the "Commit changes" button further indicates that she is on the right track to finalizing her edits.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA4.xlsx
+++ b/outputs/KOLKATA4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README file is a necessary step toward adding information to it. The file is clearly labeled, making it an obvious target for her to consider.</t>
+Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. ABI is motivated to accomplish tasks and will recognize that finding the README is a necessary step toward adding information to it. Additionally, ABI's comprehensive information processing style will lead them to look through the file directory to find relevant files, including the README.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory at the top. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file.</t>
+Why: Scrolling down to read more information aligns with ABI's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory at the top. This makes it easy for ABI to identify and locate the README file by scrolling down if needed. The action of scrolling down to gather more information is straightforward and does not require any unfamiliar technical skills, making it a suitable step for ABI.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, its features, installation, and contributing, but it does not provide specific guidance on how to find or edit the README file. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal of finding the README file. The lack of specific instructions or confirmation could make her doubt if she is on the right track.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: While scrolling down the page, ABI will see a lot of information about the project, but this information is not directly related to finding the README file. ABI might feel overwhelmed by the amount of text and different sections, which could affect their confidence (Computer Self-Efficacy). Additionally, the README file is already visible at the top of the page, so scrolling down further might not provide any additional useful information for this specific subgoal. ABI prefers process-oriented learning and might not realize that they have already found the README file without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The file is clearly labeled, making it an obvious target for her to consider, and the page layout is straightforward enough for her to understand what to do next.</t>
+Why: The README.md file is clearly listed in the file directory at the top of the page, making it easy for ABI to identify. ABI is motivated to accomplish tasks and will recognize that clicking on the README.md file is a necessary step toward adding information to it. The page is well-organized, and the action of clicking on the README.md file is straightforward and does not require any unfamiliar technical skills. This aligns with ABI's comprehensive information processing style, as they will see the README.md file listed and understand that clicking on it will provide the necessary information.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. While this page provides a lot of information about the project, it does not provide specific instructions on how to edit the README file. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal of adding information to the README. The lack of clear, step-by-step instructions or an obvious edit button could make her doubt if she is on the right track and if she has all the information she needs to proceed.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on README.md, ABI will land on a page that clearly displays the contents of the README file. This page provides detailed information about the project, which aligns with ABI's comprehensive information processing style. ABI will know they did the right thing because the README file is now open, and they can see the information they need to add or modify. The clear presentation of the README content will help ABI feel confident that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. The page she is on provides a lot of information about the project, but it does not explicitly mention how to edit the README. Therefore, she would likely think that figuring out how to edit it is an important step toward achieving her overall goal.</t>
+Why: ABI is motivated to accomplish tasks and will recognize that finding out how to edit the README is a necessary step toward adding information to it. Given ABI's comprehensive information processing style, they will understand that knowing how to edit the file is crucial for completing the task. The page provides detailed information about the project, and ABI will likely look for instructions or guidelines on how to contribute or edit files, which is a logical step in the process.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button, which is typically used for editing, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar icon without clear instructions. Abi might be hesitant to click the pencil button without knowing for sure that it will allow her to edit the README file, as she tends to avoid tinkering and prefers step-by-step guidance.</t>
+Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. ABI, who has low confidence in unfamiliar computing tasks (Computer Self-Efficacy), might not recognize the pencil icon as the edit function without clear instructions. Additionally, ABI prefers process-oriented learning and might need explicit guidance or a tutorial to understand that clicking the pencil button will allow them to edit the file. The lack of clear instructions or labels makes it difficult for ABI to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the contents of the README file in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward text editor, which aligns with her motivation to accomplish tasks and her comprehensive information processing style. She will have all the information she needs to proceed with editing the README.</t>
+Why: After clicking the pencil button, ABI will be taken to an edit page where the README.md file is displayed in an editable format. This clear transition to an editing interface will indicate to ABI that they have done the right thing and are making progress toward their goal. The page provides a straightforward text editor, which aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The presence of "Commit changes" and "Cancel changes" buttons further reinforces that ABI is in the correct place to make edits, providing the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page Abi lands on after clicking the pencil button is a straightforward text editor with the contents of the README file displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she can now edit the file directly. The interface is clear and intuitive, with the text ready for editing, which aligns with her goal of adding information to the README. The presence of "Edit" and "Commit changes" buttons further guides her on what to do next, making the page good enough for her to take this action.</t>
+Why: The page ABI lands on after clicking the pencil button is a straightforward text editor with the README.md file content displayed. ABI, motivated to accomplish tasks, will recognize that they can now edit the file directly. The interface is simple and intuitive, with clear options to "Cancel changes" or "Commit changes," which aligns with ABI's comprehensive information processing style. The presence of these buttons and the editable text area provides ABI with the necessary information to proceed with editing the file confidently.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm to her that she did the right thing and is making progress toward her goal of adding information to the README. The presence of the "Commit changes" button further indicates the next step she needs to take to save her changes. The interface is clear and provides all the necessary information for her to proceed, aligning with her motivation to accomplish tasks and her comprehensive information processing style.</t>
+Why: After editing the file, ABI will see their changes reflected in the text editor. The presence of the "Commit changes" button indicates that they can save their edits, reinforcing that they are making progress toward their goal. The interface is clear and straightforward, showing the edited content directly, which aligns with ABI's comprehensive information processing style. This visual confirmation of their edits will help ABI understand that they have done the right thing and are on the right track to completing the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not prominently visible on the page, and there are no explicit instructions indicating that this button should be clicked to preview the changes. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about what to do next without clear guidance. The page does not provide enough visual cues or instructions to make it obvious that clicking "Preview changes" is the next step, which could make Abi hesitant to proceed.</t>
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. ABI, who has low confidence in unfamiliar computing tasks (Computer Self-Efficacy), might not recognize the purpose of this button without clear instructions. Additionally, ABI prefers process-oriented learning and might need explicit guidance or a tutorial to understand that clicking "Preview changes" will show a preview of their edits. The lack of clear instructions or labels makes it difficult for ABI to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits included. This visual confirmation will indicate to her that she did the right thing and is making progress toward her goal of adding information to the README. The page clearly shows the changes she made, providing the feedback she needs to feel confident that she is on the right track. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the results of her actions directly.</t>
+Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits included. This visual confirmation will help ABI understand that they have done the right thing and are making progress toward their goal. The clear presentation of the edited content aligns with ABI's comprehensive information processing style, providing the necessary feedback to ensure that their changes are correct. This will reinforce ABI's confidence that they are on the right track to completing the task.</t>
         </is>
       </c>
     </row>
